--- a/docs/状態遷移リスト.xlsx
+++ b/docs/状態遷移リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\24AkiC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E141AC8-4718-4B4C-ADD8-6B206C3876CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9F4A94-D09A-49D4-BA22-71B4DE29387C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5460" xr2:uid="{CFC8ACEA-4BDC-419D-A0E4-860016E24801}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="65">
   <si>
     <t>画面情報</t>
     <rPh sb="0" eb="4">
@@ -355,6 +355,106 @@
   </si>
   <si>
     <t>JSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResetPasswordServlet.java、DBConnector.java、UsersDAO.java、UsersBean.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java、DBConnector、MainToDoBean、MainToDoDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreateUserServlet.java、DBConnector.java、UsersDAO.java、UsersBean.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainToDoServlet.java、DBConnector.java、MainToDoBean、MainToDoDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FixTicketServlet.java、DBConnector.java、MainToDoBean、MainToDoDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeleteTicketServlet.java、DBConnector.java、MainToDoBean、MainToDoDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AddTicketServlet.java、DBConnector.java、MainToDoBean、MainToDoDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォーム（検索条件により異なる）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SearchTicketServlet.java、DBConnector.java、MainToDoBean、MainToDoDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（Mainの画面と一緒。埋め込む）</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TopPage.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginPage.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResetPasswordPage.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreateUserPage.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainToDoPage.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ImportanceToDoPage.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -844,25 +944,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C73863-870E-4141-912F-C0F282ED464F}">
-  <dimension ref="B1:H35"/>
+  <dimension ref="B1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="4.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="84" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.796875" customWidth="1"/>
+    <col min="10" max="10" width="5.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
@@ -870,22 +972,28 @@
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -894,22 +1002,28 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B35" si="0">ROW()-2</f>
         <v>2</v>
@@ -918,22 +1032,28 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -941,23 +1061,29 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -965,23 +1091,29 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -989,21 +1121,29 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1011,21 +1151,29 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1033,21 +1181,29 @@
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1055,17 +1211,25 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1073,17 +1237,25 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1091,17 +1263,25 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1109,17 +1289,25 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1127,17 +1315,25 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1145,17 +1341,25 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1163,17 +1367,25 @@
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1182,16 +1394,24 @@
         <v>11</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1200,16 +1420,24 @@
         <v>11</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1218,16 +1446,24 @@
         <v>11</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1236,16 +1472,24 @@
         <v>11</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1254,16 +1498,24 @@
         <v>11</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1271,17 +1523,25 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1290,16 +1550,24 @@
         <v>31</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1308,16 +1576,24 @@
         <v>31</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="1" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J24" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1326,16 +1602,24 @@
         <v>31</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1344,16 +1628,24 @@
         <v>31</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J26" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1362,16 +1654,24 @@
         <v>31</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="1" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1379,17 +1679,25 @@
       <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="1" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J28" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1397,17 +1705,25 @@
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="1" t="s">
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J29" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1415,17 +1731,27 @@
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="1" t="s">
+      <c r="D30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J30" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1434,16 +1760,18 @@
         <v>38</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J31" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1451,17 +1779,23 @@
       <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J32" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1469,15 +1803,17 @@
       <c r="C33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1485,15 +1821,17 @@
       <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D34" s="2"/>
+      <c r="E34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1501,13 +1839,20 @@
       <c r="C35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="6"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/状態遷移リスト.xlsx
+++ b/docs/状態遷移リスト.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\24AkiC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9F4A94-D09A-49D4-BA22-71B4DE29387C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254B05B3-C652-4001-81CA-C3136E2A14D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5460" xr2:uid="{CFC8ACEA-4BDC-419D-A0E4-860016E24801}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概要" sheetId="2" r:id="rId1"/>
+    <sheet name="詳細" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="103">
   <si>
     <t>画面情報</t>
     <rPh sb="0" eb="4">
@@ -456,13 +457,686 @@
   <si>
     <t>ImportanceToDoPage.jsp</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 要件定義の最終確認</t>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 開発すべき機能や画面、データの流れを明確にする。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>具体的な作業</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>機能一覧、画面一覧を確認して、各機能の要件が抜け漏れなく定義されているか確認します。</t>
+  </si>
+  <si>
+    <t>ユーザーフロー（ユーザーがどのようにアプリケーションを使用するか）を描いて、各画面間の遷移や機能を理解します。</t>
+  </si>
+  <si>
+    <t>2. データベース設計</t>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: チケットやユーザー情報などのデータをどのように保存・操作するかを決定。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>必要なテーブルの定義（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ticket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> など）。</t>
+    </r>
+  </si>
+  <si>
+    <t>各テーブルのカラム名、データ型、制約（主キー、外部キーなど）を決定。</t>
+  </si>
+  <si>
+    <r>
+      <t>チケット管理に必要なデータ（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ticket_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>user_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>deadline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>importance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>progress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> など）を整理。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ツール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: SQLエディターやデータベースモデリングツール。</t>
+    </r>
+  </si>
+  <si>
+    <t>3. データベース接続設定</t>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: アプリケーションとデータベースが通信できる環境を整える。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DBConnector.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の実装。データベースに接続するための基本的な設定を行い、必要に応じて接続の検証を行います。</t>
+    </r>
+  </si>
+  <si>
+    <t>環境ごとの設定（データベースのURL、ユーザー名、パスワードなど）をプロパティファイルなどで管理。</t>
+  </si>
+  <si>
+    <t>4. ユーザー認証（ログイン）機能の実装</t>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ユーザーがアプリケーションにログインし、個別のToDo管理ができるようにする。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LoginPage.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>LoginServlet.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の作成。ユーザーIDとパスワードの入力フォームを設置し、データベースで認証処理を行います。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>認証成功後、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>MainToDoServlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にユーザー情報を渡して、ユーザーに関連するToDoリストを表示できるように設定。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ポイント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 初期の段階でユーザー管理を実装することで、認証を通じた機能テストが可能になります。</t>
+    </r>
+  </si>
+  <si>
+    <t>5. ToDo管理画面の実装</t>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ログインしたユーザーに紐づくチケットの表示や、チケットの操作ができる画面を実装。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MainToDoPage.jsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で、ユーザーのToDoリストを一覧表示。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MainToDoServlet.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>MainToDoDAO.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使って、データベースからToDoリストを取得。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ポイント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: まずは表示機能に集中し、その後、追加・編集・削除機能を追加。</t>
+    </r>
+  </si>
+  <si>
+    <t>6. チケットの追加・編集・削除機能の実装</t>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ToDoリストを動的に管理できるようにする。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AddTicketServlet.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（チケット追加）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>FixTicketServlet.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（チケット修正）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DeleteTicketServlet.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（チケット削除）の実装。</t>
+    </r>
+  </si>
+  <si>
+    <t>各サーブレットで対応するDAOメソッドを呼び出し、DBへの操作を行う。</t>
+  </si>
+  <si>
+    <t>フロントエンド（JSPまたはHTML）とバックエンド（サーブレット）が正しく連携するようにします。</t>
+  </si>
+  <si>
+    <r>
+      <t>ポイント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 各アクションの後に、ユーザーがチケット管理画面にリダイレクトされるように実装。</t>
+    </r>
+  </si>
+  <si>
+    <t>7. パスワードリセットやユーザー作成機能の追加</t>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ユーザー管理機能の充実化。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CreateUserServlet.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でユーザーの登録処理を実装。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ResetPasswordServlet.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で、パスワードの再設定処理を実装。</t>
+    </r>
+  </si>
+  <si>
+    <t>8. 検索機能の実装</t>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: チケットを効率的に検索できるようにする。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SearchTicketServlet.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で検索条件に基づいてチケットをフィルタリングする機能を実装。</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +1151,30 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -593,7 +1291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,6 +1327,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,14 +1656,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0173D0FF-6695-4C41-AB66-DA2CDC1743E7}">
+  <dimension ref="B2:B61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="22.2">
+      <c r="B2" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="22.2">
+      <c r="B9" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="22.2">
+      <c r="B18" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="22.2">
+      <c r="B25" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="22.2">
+      <c r="B33" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="22.2">
+      <c r="B41" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="22.2">
+      <c r="B50" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="22.2">
+      <c r="B57" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="13"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C73863-870E-4141-912F-C0F282ED464F}">
   <dimension ref="B1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="94" workbookViewId="0">
+    <sheetView zoomScale="94" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="4.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
@@ -963,8 +1942,8 @@
     <col min="10" max="10" width="5.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:10" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
@@ -993,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1023,7 +2002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B35" si="0">ROW()-2</f>
         <v>2</v>
@@ -1053,7 +2032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1083,7 +2062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1113,7 +2092,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1143,7 +2122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1173,7 +2152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1203,7 +2182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1229,7 +2208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1255,7 +2234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1281,7 +2260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1307,7 +2286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1333,7 +2312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1359,7 +2338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1385,7 +2364,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1411,7 +2390,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1437,7 +2416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1463,7 +2442,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1489,7 +2468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1515,7 +2494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1541,7 +2520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1567,7 +2546,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1593,7 +2572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1619,7 +2598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1645,7 +2624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1671,7 +2650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1697,7 +2676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:10">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1723,7 +2702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:10">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1751,7 +2730,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1771,7 +2750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:10">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1795,7 +2774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1813,7 +2792,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1831,7 +2810,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:10" ht="18.600000000000001" thickBot="1">
       <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1849,7 +2828,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10">
       <c r="B36">
         <v>34</v>
       </c>
